--- a/public/sample-excel-data.xlsx
+++ b/public/sample-excel-data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Syed\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Tata Steel Limited\Desktop\incident\frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7F0CF5-41FD-44D7-BDB9-BC66576851DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DA7B7B-80D4-4CBC-B2E2-953A0044866B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{96581E35-3FE1-4606-AF71-AB43DB3F8CCF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="56">
   <si>
     <t>Reported On</t>
   </si>
@@ -92,335 +92,120 @@
     <t>Incident</t>
   </si>
   <si>
-    <t>MITHILESH PRASAD</t>
-  </si>
-  <si>
-    <t>Hi Jha Ji,
-While connect camera network in TSL Firewall business NW is utilization very high.
-Please check camera network and resolve the issue.
-Regards,
-Mithilesh Prasad
-IT Support Services
-Tata Steel Limited | Wires &amp; CRC-West
-Plot No: F8, MIDC Tarapur, Boisar (W), Palghar 401 506 MH
-Mobile: +91 78755 80949
-[Teams-16x16] You can connect with me on Teams!&lt;https://teams.microsoft.com/l/meetup-join/19%3ameeting_ZDJiMGZhMTctODdmZC00ZTkwLTg5YTMtNGJjODljZmI2YWM3%40thread.v2/0?context=%7b%22Tid%22%3a%22f35425af-4755-4e0c-b1bb-b3cb9f1c6afd%22%2c%22Oid%22%3a%223dd0ecb8-39b1-4f2e-8455-823751d23e73%22%7d&gt;</t>
-  </si>
-  <si>
-    <t>Camera Network Issue (One Fiber UP Link Issue) at Wires Division</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-12-2023 05:48:45 PM - Swapna  Sona (Work notes)
-Assigned to TSL Network Cabling Services
-18-12-2023 05:19:07 PM - Ranjeet Kumar Mishra (Work notes)
-Please transfer to TSL cabling team.
-Fibe uplink need to be checked. 
-Suman Kumar
-18-12-2023 04:59:56 PM - Kanchan Kumari (Work notes)
-Assigned to IBM Network Support LAN
+    <t>Jamshedpur</t>
+  </si>
+  <si>
+    <t>Resolved</t>
+  </si>
+  <si>
+    <t>Alert</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>AP Requirement</t>
+  </si>
+  <si>
+    <t>WIP</t>
+  </si>
+  <si>
+    <t>Transfer</t>
+  </si>
+  <si>
+    <t>Work is in progress</t>
+  </si>
+  <si>
+    <t>New Assignments</t>
+  </si>
+  <si>
+    <t>Above 3</t>
+  </si>
+  <si>
+    <t>Syed Ziauddin</t>
+  </si>
+  <si>
+    <t>Kumari Sweta</t>
+  </si>
+  <si>
+    <t>Swarat Sarkar</t>
+  </si>
+  <si>
+    <t>Tanvee Vilas Gawand</t>
+  </si>
+  <si>
+    <t>ZiaCodes</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>Jessica Miller</t>
+  </si>
+  <si>
+    <t>This is a sample Ticket Details</t>
+  </si>
+  <si>
+    <t>This is samples Ticket summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a sample work notes
 </t>
   </si>
   <si>
-    <t xml:space="preserve">18-12-2023 05:48:45 PM - Swapna  Sona (Work notes)
-Assigned to TSL Network Cabling Services
-18-12-2023 05:19:07 PM - Ranjeet Kumar Mishra (Work notes)
-Please transfer to TSL cabling team.
-Fibe uplink need to be checked. 
-Suman Kumar
-18-12-2023 04:59:56 PM - Kanchan Kumari (Work notes)
-Assigned to IBM Network Support LAN
-18-12-2023 01:03:18 PM - MITHILESH PRASAD (Additional comments)
-received from: mithilesh.prasad1@partners.tatasteel.com
-Hi Jha Ji,
-While connect camera network in TSL Firewall business NW is utilization very high.
-Please check camera network and resolve the issue.
-Regards,
-Mithilesh Prasad
-IT Support Services
-Tata Steel Limited | Wires &amp; CRC-West
-Plot No: F8, MIDC Tarapur, Boisar (W), Palghar 401 506 MH
-Mobile: +91 78755 80949
-[Teams-16x16] You can connect with me on Teams!&lt;https://teams.microsoft.com/l/meetup-join/19%3ameeting_ZDJiMGZhMTctODdmZC00ZTkwLTg5YTMtNGJjODljZmI2YWM3%40thread.v2/0?context=%7b%22Tid%22%3a%22f35425af-4755-4e0c-b1bb-b3cb9f1c6afd%22%2c%22Oid%22%3a%223dd0ecb8-39b1-4f2e-8455-823751d23e73%22%7d&gt;
+    <t xml:space="preserve">This is a samples comments and  work notes
 </t>
   </si>
   <si>
-    <t>Jamshedpur</t>
-  </si>
-  <si>
-    <t>JSR</t>
-  </si>
-  <si>
-    <t>EMBEE</t>
-  </si>
-  <si>
-    <t>Resolved</t>
-  </si>
-  <si>
-    <t>Abhay Ranjan</t>
-  </si>
-  <si>
-    <t>Dear Sir,
-Request to kindly install one router in Head Fire Brigade room. There is network issue in that room. Request to kindly resolve the issue.
-अभय रंजन
-प्रबंधक अग्निशमन सेवाएं
-टाटा स्टील लिमिटेड, जमशेदपुर
-7488840115/9262290207
-Information contained and transmitted by this e-mail is confidential and proprietary to Tata Steel Ltd. and is intended for use only by the addressee. If you are not the intended recipient , you are notified that any dissemination or copying of this e-mail is strictly prohibited and you are requested to delete this e-mail immediately and notify the originator. Tata Steel does not enter into any binding agreement with any party by e-mail. Any views expressed by an individual do not necessarily reflect the view of Tata Steel. Tata Steel is not responsible for the consequences of any actions taken on the basis of information provided. While this e-mail has been checked for all known viruses the addressee should also scan for viruses. Personal data shared on the email will be processed in accordance with the lawfulness of processing as per Tata Steel Limited, India (TSL)’s Data Privacy Policy. To know more about Tata Steel and TSL's Privacy Policy, please visit www.tatasteel.com.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Router installation at west plant Fire Brigade </t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-12-2023 01:27:07 PM - Anjali Mitra  (Work notes)
-TSL Network Cabling Services
-19-12-2023 01:04:59 PM - Ranjeet Kumar Mishra (Work notes)
-Please transfer this call to TSL Cabling team area.
-Router installation at west plant Fire Brigade
-19-12-2023 01:00:37 PM - Swapna  Sona (Work notes)
-Assigned to IBM Network Support LAN
-19-12-2023 12:41:15 PM - Watsonsnowint  (Work notes)
-updated_by_watson_v2, TicketNumber:05864139,Severity:1,OperationType:Incident,OperationConfidence:0.697591,CategorySubCategory:Infrastructure,Authorization EUC,CategorySubCategoryConfidence:0.72536427,PredictedCI:Authorization EUC (Infra),CIConfidence:0.95,PredictedAssignmentGroup:IT Helpdesk,AssignmentGroupConfidence:0.8647778,ContactType:Auto Ticket,SupportGroup:, AssetofUser: 8
-19-12-2023 12:38:59 PM - Watsonsnowint  (Work notes)
-updated_by_watson_v2, TicketNumber:05864139,Severity:1,OperationType:Incident,OperationConfidence:0.697591,CategorySubCategory:Infrastructure,Authorization EUC,CategorySubCategoryConfidence:0.72536427,PredictedCI:Authorization EUC (Infra),CIConfidence:0.95,PredictedAssignmentGroup:IT Helpdesk,AssignmentGroupConfidence:0.8647778,ContactType:Auto Ticket,SupportGroup:, AssetofUser: 8
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-12-2023 01:27:07 PM - Anjali Mitra  (Work notes)
-TSL Network Cabling Services
-19-12-2023 01:04:59 PM - Ranjeet Kumar Mishra (Work notes)
-Please transfer this call to TSL Cabling team area.
-Router installation at west plant Fire Brigade
-19-12-2023 01:04:59 PM - Ranjeet Kumar Mishra (Additional comments)
-Please transfer this call to TSL Cabling team area.
-Router installation at west plant Fire Brigade
-19-12-2023 01:00:37 PM - Swapna  Sona (Work notes)
-Assigned to IBM Network Support LAN
-19-12-2023 12:41:15 PM - Watsonsnowint  (Work notes)
-updated_by_watson_v2, TicketNumber:05864139,Severity:1,OperationType:Incident,OperationConfidence:0.697591,CategorySubCategory:Infrastructure,Authorization EUC,CategorySubCategoryConfidence:0.72536427,PredictedCI:Authorization EUC (Infra),CIConfidence:0.95,PredictedAssignmentGroup:IT Helpdesk,AssignmentGroupConfidence:0.8647778,ContactType:Auto Ticket,SupportGroup:, AssetofUser: 8
-19-12-2023 12:38:59 PM - Watsonsnowint  (Work notes)
-updated_by_watson_v2, TicketNumber:05864139,Severity:1,OperationType:Incident,OperationConfidence:0.697591,CategorySubCategory:Infrastructure,Authorization EUC,CategorySubCategoryConfidence:0.72536427,PredictedCI:Authorization EUC (Infra),CIConfidence:0.95,PredictedAssignmentGroup:IT Helpdesk,AssignmentGroupConfidence:0.8647778,ContactType:Auto Ticket,SupportGroup:, AssetofUser: 8
-19-12-2023 12:35:06 PM - Abhay Ranjan (Additional comments)
-received from: abhay.ranjan@tatasteel.com
-Dear Sir,
-Request to kindly install one router in Head Fire Brigade room. There is network issue in that room. Request to kindly resolve the issue.
-अभय रंजन
-प्रबंधक अग्निशमन सेवाएं
-टाटा स्टील लिमिटेड, जमशेदपुर
-7488840115/9262290207
-Information contained and transmitted by this e-mail is confidential and proprietary to Tata Steel Ltd. and is intended for use only by the addressee. If you are not the intended recipient , you are notified that any dissemination or copying of this e-mail is strictly prohibited and you are requested to delete this e-mail immediately and notify the originator. Tata Steel does not enter into any binding agreement with any party by e-mail. Any views expressed by an individual do not necessarily reflect the view of Tata Steel. Tata Steel is not responsible for the consequences of any actions taken on the basis of information provided. While this e-mail has been checked for all known viruses the addressee should also scan for viruses. Personal data shared on the email will be processed in accordance with the lawfulness of processing as per Tata Steel Limited, India (TSL)’s Data Privacy Policy. To know more about Tata Steel and TSL's Privacy Policy, please visit www.tatasteel.com.
-</t>
-  </si>
-  <si>
-    <t>WIZER</t>
-  </si>
-  <si>
-    <t>Anup Kumar</t>
-  </si>
-  <si>
-    <t>User's preferred contact telephone number: 7763807268
-Availability of the user for telephone contact from engineer: G Shift
-User's Location : R &amp;D main building, 1st Floor, Room No. 110
-Issue Description and troubleshooting steps: User's system not on network
-Asset ID is pinging : NA
-User re-plugged the LAN cable : No
-Numbers of User Affected : 1
-Common Ticket Number (if any) : No
-Did you change/move your asset location :  No
-Error message (if any) : something went wrong
-Is this issue occur today or how long you are facing this issue : Today
-Remote Disclaimer: No
-Ticket number provided: Yes
-Resolved/Closed as per user permission: No</t>
-  </si>
-  <si>
-    <t>Desktop :User's system not on network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-12-2023 12:27:50 PM - Shaily  Kumari (Work notes)
-Assigned to TSL Network Cabling Services.
-18-12-2023 12:08:01 PM - Tarun  Kumar (Work notes)
-As engineer Mr. Arvind 7209428186 visited the location checked and found, IO box side loose connection, proper checking done, So please call transfer to cabling team. Checklist and photo attached in tool.
-18-12-2023 10:30:46 AM - Roshni Singh (Work notes)
-Assigned to IBM Jamshedpur Deskside Support
-</t>
-  </si>
-  <si>
-    <t>MDSINHA</t>
-  </si>
-  <si>
-    <t>Ashoke Ghosh</t>
-  </si>
-  <si>
-    <t>User's preferred contact telephone number: 9234768143, 40720
-Availability of the user for telephone contact from engineer: B shift
-User's Location : CRM RCL 1 Bottom Inspection Room
-Issue Description and troubleshooting steps: User's system not on network
-Asset ID is pinging : NO
-User re-plugged the LAN cable :  YES
-Numbers of User Affected : 1
-Common Ticket Number (if any) : NA
-Did you change/move your asset location :  NO
-Error message (if any) : NA
-Is this issue occur today or how long you are facing this issue : Today
-Remote Disclaimer: NA
-Ticket number provided: YES
-Resolved/Closed as per user permission: NA</t>
-  </si>
-  <si>
-    <t>User's system not on network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-12-2023 05:52:35 PM - Anjali Mitra  (Work notes)
-TSL Network Cabling Services
-19-12-2023 05:25:10 PM - Tarun  Kumar (Work notes)
-As engineer Mr. Arvind 7209428186 visited the location checked and found, Cable not traceable from switch end, proper checking done, So please call transfer to cabling team. Checklist attached in tool.
-Note :- Please tagging the switch asset no and port no.
-19-12-2023 03:10:39 PM - RAJA DEY (Work notes)
-Assigned to IBM Jamshedpur Deskside Support
-</t>
-  </si>
-  <si>
-    <t>Binay Kumar Srivastava</t>
-  </si>
-  <si>
-    <t>User's preferred contact telephone number: 9234567610
-Availability of the user for telephone contact from engineer: G shift
-User's Location : FLAT PRODUCT CENTRE BUILDING 3RD FLOOR CUBICAL NO 315
-Issue Description and troubleshooting steps: User's system not on network
-Asset ID is pinging : No
-User re-plugged the LAN cable : Yes
-Numbers of User Affected : 1
-Common Ticket Number (if any) :NA
-Did you change/move your asset location :  No
-Error message : NA
-Is this issue occur today or how long you are facing this issue :Today
-Remote Disclaimer: NA
-Ticket number provided: Yes
-Resolved/Closed as per user permission: NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laptop :User's system not on network </t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-12-2023 05:51:52 PM - Anjali Mitra  (Work notes)
-TSL Network Cabling Services
-19-12-2023 05:06:05 PM - Ranjeet Kumar Mishra (Work notes)
-As per mentioned comment there is required AP for better signal so, please transfer this call to TSL cabling team.
-Update by Subrato
-19-12-2023 04:02:30 PM - Tarun  Kumar (Work notes)
-As engineer Mr. Arvind 7209428186 visited the location checked and found, CAPV2 wifi signal dropping issue in the user cabin, no access point is available in the cabin, proper checking done, So please do the needful. Checklist and artifact attached in tool.
-19-12-2023 03:10:44 PM - ISHIKA SAHU (Work notes)
-Assigned to IBM Jamshedpur Deskside Support
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-12-2023 05:51:52 PM - Anjali Mitra  (Work notes)
-TSL Network Cabling Services
-19-12-2023 05:06:05 PM - Ranjeet Kumar Mishra (Additional comments)
-As per mentioned comment there is required AP for better signal so, please transfer this call to TSL cabling team.
-Update by Subrato
-19-12-2023 05:06:05 PM - Ranjeet Kumar Mishra (Work notes)
-As per mentioned comment there is required AP for better signal so, please transfer this call to TSL cabling team.
-Update by Subrato
-19-12-2023 04:02:30 PM - Tarun  Kumar (Work notes)
-As engineer Mr. Arvind 7209428186 visited the location checked and found, CAPV2 wifi signal dropping issue in the user cabin, no access point is available in the cabin, proper checking done, So please do the needful. Checklist and artifact attached in tool.
-19-12-2023 03:10:44 PM - ISHIKA SAHU (Work notes)
-Assigned to IBM Jamshedpur Deskside Support
-</t>
-  </si>
-  <si>
-    <t>Alert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Itsnetworkteam </t>
-  </si>
-  <si>
-    <t>User's preferred contact telephone number: 8863865913
-Availability of the user for telephone contact from engineer: A shift
-User's Location : JAJPUR CRM ASRS CONTROL ROOM
-Issue Description and troubleshooting steps: User's system not on network
-Asset ID is pinging : No
-User re-plugged the LAN cable : 
-Numbers of User Affected : 01
-Common Ticket Number (if any) :NA
-Did you change/move your asset location :  No
-Error message (if any) : NA
-Is this issue occur today or how long you are facing this issue : Today
-Remote Disclaimer : NA
-Ticket number provided : Yes
-Resolved/Closed as per user permission :NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16-12-2023 11:36:31 AM - ARC.CABLING  (Work notes)
-As discussed with Mr. Sachidanand Sir he saying that we are not support L1 &amp; L2 network.
-Skylink - Kalyan Biswas
-14-12-2023 11:54:22 AM - Abhijeet Banerjee (Work notes)
-User called to know about ticket status same has been shared team please contact the user and solve the issue in priority basis
-12-12-2023 02:18:07 PM - ARC.CABLING  (Work notes)
-call Assign to SKYLINK
-12-12-2023 12:41:09 PM - Shaily  Kumari (Work notes)
-Assigned to TSL Network Cabling Services.
-12-12-2023 11:41:54 AM - PABITRA KUMAR SAHOO (Work notes)
-We checked and found cable faulty kindly assign call to cabling team to restore the connectivity...
-12-12-2023 11:39:22 AM - Bhagirathi  Nayak (Work notes)
-Checked and found issue in network , please do the needful ..............................Abhimanyu
-12-12-2023 09:33:41 AM - Bhagirathi  Nayak (Work notes)
-As disscuss with user  call scheduled after 10 AM.....................................................................SUSHIL
-12-12-2023 07:58:38 AM - ISHIKA SAHU (Work notes)
-Assigned to DXC KPO Deskside Support
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16-12-2023 11:36:31 AM - ARC.CABLING  (Work notes)
-As discussed with Mr. Sachidanand Sir he saying that we are not support L1 &amp; L2 network.
-Skylink - Kalyan Biswas
-16-12-2023 11:36:31 AM - ARC.CABLING  (Additional comments)
-As discussed with Mr. Sachidanand Sir he saying that we are not support L1 &amp; L2 network.
-14-12-2023 11:54:22 AM - Abhijeet Banerjee (Work notes)
-User called to know about ticket status same has been shared team please contact the user and solve the issue in priority basis
-12-12-2023 02:18:07 PM - ARC.CABLING  (Additional comments)
-call Assign to SKYLINK
-12-12-2023 02:18:07 PM - ARC.CABLING  (Work notes)
-call Assign to SKYLINK
-12-12-2023 12:41:09 PM - Shaily  Kumari (Work notes)
-Assigned to TSL Network Cabling Services.
-12-12-2023 11:41:54 AM - PABITRA KUMAR SAHOO (Additional comments)
-We checked and found cable faulty kindly assign call to cabling team to restore the connectivity...
-12-12-2023 11:41:54 AM - PABITRA KUMAR SAHOO (Work notes)
-We checked and found cable faulty kindly assign call to cabling team to restore the connectivity...
-12-12-2023 11:39:22 AM - Bhagirathi  Nayak (Work notes)
-Checked and found issue in network , please do the needful ..............................Abhimanyu
-12-12-2023 09:33:41 AM - Bhagirathi  Nayak (Additional comments)
-As disscuss with user  call scheduled after 10 AM.....................................................................SUSHIL
-12-12-2023 09:33:41 AM - Bhagirathi  Nayak (Work notes)
-As disscuss with user  call scheduled after 10 AM.....................................................................SUSHIL
-12-12-2023 07:58:38 AM - ISHIKA SAHU (Work notes)
-Assigned to DXC KPO Deskside Support
-</t>
-  </si>
-  <si>
-    <t>LASETEK</t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>AP Requirement</t>
-  </si>
-  <si>
-    <t>WIP</t>
-  </si>
-  <si>
-    <t>Transfer</t>
-  </si>
-  <si>
-    <t>Work is in progress</t>
-  </si>
-  <si>
-    <t>New Assignments</t>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Dubai</t>
+  </si>
+  <si>
+    <t>Bengaluru</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>UAE</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>Wipro</t>
+  </si>
+  <si>
+    <t>TCS</t>
+  </si>
+  <si>
+    <t>Agoda</t>
+  </si>
+  <si>
+    <t>Infosys</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Google</t>
   </si>
 </sst>
 </file>
@@ -848,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED32D290-A9F9-4B62-B234-FB8D08F1982C}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -858,14 +643,14 @@
     <col min="2" max="2" width="12.5546875" customWidth="1"/>
     <col min="3" max="3" width="5.5546875" customWidth="1"/>
     <col min="6" max="6" width="16.21875" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.21875" customWidth="1"/>
     <col min="9" max="9" width="17.77734375" customWidth="1"/>
     <col min="10" max="10" width="14.77734375" customWidth="1"/>
     <col min="11" max="11" width="24.77734375" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="14" max="14" width="6.109375" customWidth="1"/>
-    <col min="15" max="15" width="15.21875" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -913,7 +698,7 @@
         <v>12</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>13</v>
@@ -921,13 +706,13 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>5859543</v>
+        <v>100000</v>
       </c>
       <c r="B2" s="4">
         <v>45278.543958333335</v>
       </c>
       <c r="C2" s="5">
-        <v>6.4560416666645324</v>
+        <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>15</v>
@@ -939,45 +724,45 @@
         <v>17</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>5864139</v>
+        <v>200000</v>
       </c>
       <c r="B3" s="4">
         <v>45279.524375000001</v>
       </c>
       <c r="C3" s="5">
-        <v>5.4756249999991269</v>
+        <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>15</v>
@@ -989,39 +774,39 @@
         <v>17</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>5858244</v>
+        <v>300000</v>
       </c>
       <c r="B4" s="4">
         <v>45278.434016203704</v>
@@ -1030,48 +815,48 @@
         <v>6.5659837962957681</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>5865137</v>
+        <v>400000</v>
       </c>
       <c r="B5" s="4">
         <v>45279.629861111112</v>
@@ -1080,7 +865,7 @@
         <v>5.3701388888875954</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>16</v>
@@ -1089,39 +874,39 @@
         <v>17</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>5865145</v>
+        <v>500000</v>
       </c>
       <c r="B6" s="4">
         <v>45279.630740740744</v>
@@ -1130,7 +915,7 @@
         <v>5.3692592592560686</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>16</v>
@@ -1139,39 +924,39 @@
         <v>17</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="P6" s="7" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>5866849</v>
+      <c r="A7" s="3">
+        <v>600000</v>
       </c>
       <c r="B7" s="9">
         <v>45279.874513888892</v>
@@ -1180,48 +965,48 @@
         <v>5.1254861111083301</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="8" t="s">
+      <c r="N7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>5866850</v>
+      <c r="A8" s="3">
+        <v>700000</v>
       </c>
       <c r="B8" s="9">
         <v>45279.874525462961</v>
@@ -1230,43 +1015,43 @@
         <v>5.1254745370388264</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
